--- a/data/trans_dic/P1428-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1428-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.08027296259648892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1215908719541405</v>
+        <v>0.1215908719541404</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3529334240930425</v>
@@ -685,7 +685,7 @@
         <v>0.2095818611104521</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3286242373406141</v>
+        <v>0.328624237340614</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2666241392088574</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1358641916743785</v>
+        <v>0.1354975439523813</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09514413543227919</v>
+        <v>0.09665765936961195</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06230091072911625</v>
+        <v>0.06363564611546894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09884633171789953</v>
+        <v>0.09969336086640994</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3265424075176141</v>
+        <v>0.3267555530819972</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2248586937452542</v>
+        <v>0.224209635923772</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1865040307349096</v>
+        <v>0.1838889821235618</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.306326689317084</v>
+        <v>0.3033267532283914</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2488211429549137</v>
+        <v>0.2478892377477557</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1761663022763066</v>
+        <v>0.1754474051672885</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1379410203571272</v>
+        <v>0.1378799164386997</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2261097969451573</v>
+        <v>0.2266330378146922</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1804104074920257</v>
+        <v>0.1781021471618511</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1374612197807888</v>
+        <v>0.138414869265971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1000626332343218</v>
+        <v>0.1011219518612086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1473010380535119</v>
+        <v>0.1455488064172127</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3797427535095645</v>
+        <v>0.3801760841775049</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2729529950824233</v>
+        <v>0.2710251407566012</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2381808438170741</v>
+        <v>0.2371531730451071</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3542882934925419</v>
+        <v>0.3553250002670796</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2841716887687442</v>
+        <v>0.2833603008426628</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2102990747004906</v>
+        <v>0.2094943791351958</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1740558960364869</v>
+        <v>0.1733768060353515</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2607314135932756</v>
+        <v>0.2626065939240162</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.02405244640285682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04359228172575047</v>
+        <v>0.04359228172575046</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06713749658005945</v>
@@ -821,7 +821,7 @@
         <v>0.05315771023383931</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.09652870942003466</v>
+        <v>0.09652870942003469</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.051172742673304</v>
@@ -833,7 +833,7 @@
         <v>0.03828971141353472</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06965815356043745</v>
+        <v>0.06965815356043746</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02759857452966359</v>
+        <v>0.02780329336820214</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01923250218131967</v>
+        <v>0.01972583921977184</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01817138941944822</v>
+        <v>0.0177126359797816</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03615977326238139</v>
+        <v>0.03601362312914424</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0555932814046867</v>
+        <v>0.05462815956795426</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03816642801463568</v>
+        <v>0.03807404523787276</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04332264558703202</v>
+        <v>0.04349283650104705</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08722329201916489</v>
+        <v>0.08654606488643975</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04370271826566327</v>
+        <v>0.04370493057146007</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03093481023400265</v>
+        <v>0.03065484014263942</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03223017782926815</v>
+        <v>0.03237602109991616</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06314734744247294</v>
+        <v>0.06314117780639478</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04687917309461246</v>
+        <v>0.04726349194487582</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03488267748144436</v>
+        <v>0.0349280223425749</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03194314084050889</v>
+        <v>0.0318599608477635</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05246357840901156</v>
+        <v>0.05324070655214738</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08106151318804339</v>
+        <v>0.08045106645790966</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06023916046292714</v>
+        <v>0.06123014662235417</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06436798659831239</v>
+        <v>0.06435716916320472</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1074438578676882</v>
+        <v>0.1079899932455851</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06024862875526282</v>
+        <v>0.05998801007799782</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04425904552604542</v>
+        <v>0.04426220909466666</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04514178074719767</v>
+        <v>0.0450417672694844</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07683138233670227</v>
+        <v>0.07698884181653973</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01259140797711309</v>
+        <v>0.01299835816963241</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01091751409711927</v>
+        <v>0.01075232067189575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007675079305679715</v>
+        <v>0.008214010346716314</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01575475721381095</v>
+        <v>0.0159172949143376</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03662820836919008</v>
+        <v>0.03614422736096473</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03094291569865594</v>
+        <v>0.03124997112113027</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0174637168194607</v>
+        <v>0.0179726205262833</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06115439367191999</v>
+        <v>0.06109089737959982</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02703002539148057</v>
+        <v>0.02793466358681097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02457290513484447</v>
+        <v>0.02450452941333743</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.015442487244737</v>
+        <v>0.01529597566633301</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04276662073837421</v>
+        <v>0.04252476774709654</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04225661785528402</v>
+        <v>0.04411380511740162</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0436224804723848</v>
+        <v>0.04848115061775221</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03530549045094623</v>
+        <v>0.03743375636974563</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03775761899502857</v>
+        <v>0.04017411273404918</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07976423361490846</v>
+        <v>0.08088209391360954</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07688078919796598</v>
+        <v>0.07678176369878618</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05024843500636833</v>
+        <v>0.04898378069230278</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09456476032939815</v>
+        <v>0.09347034682917471</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05207851286718517</v>
+        <v>0.05306784180238325</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05272002141719742</v>
+        <v>0.05154960065545131</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0357671581281666</v>
+        <v>0.03637827306723244</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06392664295013385</v>
+        <v>0.06251865339240856</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.03550222882795695</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05270230116165832</v>
+        <v>0.05270230116165831</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1765370015432699</v>
@@ -1105,7 +1105,7 @@
         <v>0.06526546099244114</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0994607040948184</v>
+        <v>0.09946070409481841</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06406954489756009</v>
+        <v>0.06413061285923058</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04403686950778603</v>
+        <v>0.0443202887426218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02918198253514017</v>
+        <v>0.02919273880911187</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04597865840672938</v>
+        <v>0.0467836997436436</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1628775106410049</v>
+        <v>0.1633761469108818</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1129111121837072</v>
+        <v>0.1122586173576994</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08398053849066597</v>
+        <v>0.08327248308068252</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1338637927808997</v>
+        <v>0.1348639644444</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1171632283447291</v>
+        <v>0.1178405539583509</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08143269099477482</v>
+        <v>0.0817178294374046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0589893141863434</v>
+        <v>0.05927768164435388</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09349175489455659</v>
+        <v>0.09386273055764627</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08165505232821464</v>
+        <v>0.08176167258760013</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05979381903400485</v>
+        <v>0.06057711211992495</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04266851771281261</v>
+        <v>0.04233618984612615</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0599960404146356</v>
+        <v>0.06073780504159204</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1900033468796852</v>
+        <v>0.1892079933498254</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1359821264019572</v>
+        <v>0.1359673453353193</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1047473800837776</v>
+        <v>0.1041756586283394</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1523829832333568</v>
+        <v>0.1535905847466245</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1326341441417195</v>
+        <v>0.1332283780522775</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09576921625735887</v>
+        <v>0.09581308314993311</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07175345996195183</v>
+        <v>0.07159145682194219</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1054620598459349</v>
+        <v>0.1055969466859657</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>140174</v>
+        <v>139796</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>92732</v>
+        <v>94207</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>46997</v>
+        <v>48003</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>56646</v>
+        <v>57132</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>429440</v>
+        <v>429720</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>300815</v>
+        <v>299947</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>185508</v>
+        <v>182907</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>250087</v>
+        <v>247638</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>583942</v>
+        <v>581755</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>407374</v>
+        <v>405712</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>241260</v>
+        <v>241153</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>314175</v>
+        <v>314902</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>186134</v>
+        <v>183752</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>133976</v>
+        <v>134905</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75482</v>
+        <v>76281</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>84414</v>
+        <v>83410</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>499405</v>
+        <v>499975</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>365156</v>
+        <v>362577</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>236909</v>
+        <v>235887</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>289243</v>
+        <v>290089</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>666904</v>
+        <v>665000</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>486304</v>
+        <v>484443</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>304425</v>
+        <v>303237</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>362281</v>
+        <v>364886</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>46736</v>
+        <v>47082</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>37772</v>
+        <v>38741</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>37731</v>
+        <v>36778</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>80586</v>
+        <v>80260</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>88264</v>
+        <v>86732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>66967</v>
+        <v>66804</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>86138</v>
+        <v>86477</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>188565</v>
+        <v>187101</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>143392</v>
+        <v>143400</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>115033</v>
+        <v>113992</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>131006</v>
+        <v>131598</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>277246</v>
+        <v>277219</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>79386</v>
+        <v>80037</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>68508</v>
+        <v>68597</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>66326</v>
+        <v>66154</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>116920</v>
+        <v>118652</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>128699</v>
+        <v>127730</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>105695</v>
+        <v>107434</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>127983</v>
+        <v>127961</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>232279</v>
+        <v>233459</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>197681</v>
+        <v>196826</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>164579</v>
+        <v>164591</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>183487</v>
+        <v>183081</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>337325</v>
+        <v>338017</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6943</v>
+        <v>7167</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5253</v>
+        <v>5174</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4197</v>
+        <v>4492</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11196</v>
+        <v>11311</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17450</v>
+        <v>17220</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14191</v>
+        <v>14332</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9590</v>
+        <v>9869</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>44856</v>
+        <v>44810</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>27782</v>
+        <v>28712</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>23094</v>
+        <v>23030</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>16925</v>
+        <v>16765</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>61760</v>
+        <v>61411</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>23301</v>
+        <v>24325</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20990</v>
+        <v>23328</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19308</v>
+        <v>20472</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26832</v>
+        <v>28549</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>38001</v>
+        <v>38533</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35260</v>
+        <v>35214</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27593</v>
+        <v>26899</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69362</v>
+        <v>68560</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>53527</v>
+        <v>54544</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>49547</v>
+        <v>48447</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>39202</v>
+        <v>39872</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>92318</v>
+        <v>90285</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>209927</v>
+        <v>210127</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>150596</v>
+        <v>151566</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>98566</v>
+        <v>98602</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>161491</v>
+        <v>164319</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>550395</v>
+        <v>552080</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>400950</v>
+        <v>398633</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>296628</v>
+        <v>294127</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>496870</v>
+        <v>500582</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>779808</v>
+        <v>784316</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>567651</v>
+        <v>569639</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>407600</v>
+        <v>409592</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>675391</v>
+        <v>678071</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>267546</v>
+        <v>267896</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>204482</v>
+        <v>207161</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>144118</v>
+        <v>142995</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>210725</v>
+        <v>213330</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>642059</v>
+        <v>639371</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>482875</v>
+        <v>482823</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>369978</v>
+        <v>367959</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>565609</v>
+        <v>570091</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>882779</v>
+        <v>886734</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>667588</v>
+        <v>667894</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>495796</v>
+        <v>494677</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>761865</v>
+        <v>762840</v>
       </c>
     </row>
     <row r="20">
